--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1266.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1266.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.618306410424872</v>
+        <v>1.190560698509216</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.206927537918091</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>10.55808639526367</v>
       </c>
       <c r="D1">
-        <v>1.200958572167986</v>
+        <v>2.5734543800354</v>
       </c>
       <c r="E1">
-        <v>0.7876380234242601</v>
+        <v>1.231905817985535</v>
       </c>
     </row>
   </sheetData>
